--- a/日本版コアインボイス/国税庁Q&A_R2-09改訂2021-01-26.xlsx
+++ b/日本版コアインボイス/国税庁Q&A_R2-09改訂2021-01-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1418D-6C15-BB49-A511-AE13C9AFF0E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC87CDA4-FC35-4947-84A2-7C7B9BBEFA92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="260" windowWidth="24940" windowHeight="15740" xr2:uid="{4618B0B3-59F1-EB41-A686-E99BAC95D9AC}"/>
+    <workbookView xWindow="11880" yWindow="60" windowWidth="16845" windowHeight="15510" xr2:uid="{4618B0B3-59F1-EB41-A686-E99BAC95D9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="適格(返還)請求書" sheetId="12" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="404">
   <si>
     <t>納品書</t>
     <rPh sb="0" eb="3">
@@ -1253,9 +1253,6 @@
     <t>[2]</t>
   </si>
   <si>
-    <t>jbt-1</t>
-  </si>
-  <si>
     <t>請求書番号</t>
   </si>
   <si>
@@ -1269,13 +1266,7 @@
     <t>御中</t>
   </si>
   <si>
-    <t>jbt-2</t>
-  </si>
-  <si>
     <t>請求書発行日</t>
-  </si>
-  <si>
-    <t>jbt-9</t>
   </si>
   <si>
     <t>[3]</t>
@@ -1289,9 +1280,6 @@
   </si>
   <si>
     <t>△△商店（株）</t>
-  </si>
-  <si>
-    <t>jbg-4</t>
   </si>
   <si>
     <t>-</t>
@@ -1326,9 +1314,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>jbt-27</t>
-  </si>
-  <si>
     <t>[4]</t>
   </si>
   <si>
@@ -1394,9 +1379,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>jbg-7</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -1407,9 +1389,6 @@
   </si>
   <si>
     <t>式</t>
-  </si>
-  <si>
-    <t>jbt-44</t>
   </si>
   <si>
     <t>発注者名称</t>
@@ -1620,9 +1599,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>消費税率</t>
-  </si>
-  <si>
     <t>注：鉛筆の定価は、１ダース1,200円。セール期間中は、1,000円で販売。</t>
   </si>
   <si>
@@ -1725,9 +1701,6 @@
   </si>
   <si>
     <t>[19]</t>
-  </si>
-  <si>
-    <t>納入数量</t>
   </si>
   <si>
     <t>jbt-130</t>
@@ -1794,9 +1767,6 @@
     <t>品目摘要</t>
   </si>
   <si>
-    <t>jbt-146</t>
-  </si>
-  <si>
     <t>[24]</t>
   </si>
   <si>
@@ -1912,6 +1882,227 @@
   </si>
   <si>
     <t>20XX-10-31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoice number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoice issue date</t>
+  </si>
+  <si>
+    <t>jbt-001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jbt-002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jbt-009</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jbg-04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jbt-027</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jbg-07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jbt-044</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Payment due date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SELLER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Seller name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Seller tax registration identifier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BUYER </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyer name </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Code to specify with or without TAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DOCUMENT LEVEL ALLOWANCES</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Document level allowance amount with TAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Document level allowance TAX category code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文書全体の控除(返還請求)の課税分類コード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文書全体の控除(返還請求)の税率</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Document level allowance TAX rate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DOCUMENT TOTALS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求書総合計金額(税込み)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sum of Invoice line net amount with TAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sum of allowances on document level with TAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoice total TAX amount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAX BREAKDOWN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAX category tax amount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAX category rate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAX category code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAX category taxable amount with TAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INVOICE LINE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoice line identifier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoiced quantity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoiced quantity unit of measure code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Date of the transfer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文書全体の控除(返還請求)税額</t>
+    <rPh sb="26" eb="28">
+      <t>ゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文書全体の控除(返還請求)金額（税込み）</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Document level allowance tax amount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoice line net amount with TAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LINE TAX INFORMATION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoiced item TAX category code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoiced item TAX rate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jbg-29</t>
+  </si>
+  <si>
+    <t>PRICE DETAILS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>品目情報</t>
+  </si>
+  <si>
+    <t>ITEM INFORMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item description </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Item net price with Tax</t>
+  </si>
+  <si>
+    <t>jbt-284</t>
+  </si>
+  <si>
+    <t>Item price base quantity unit of measure code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INVOICE LINE ALLOWANCES</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoice line allowance amount with TAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoice line allowance reason</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2944,7 +3135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4060,6 +4251,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4382,41 +4591,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U1004"/>
+  <dimension ref="A1:V1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="245" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="243" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="243" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="243" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="243" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="243" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="243" customWidth="1"/>
     <col min="5" max="5" width="12" style="243" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="243" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="243" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="243" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="243" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="243" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="243" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="243" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="243" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="243" customWidth="1"/>
-    <col min="12" max="12" width="2.1640625" style="243" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" style="243" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="245" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" style="243" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.125" style="243" customWidth="1"/>
+    <col min="13" max="13" width="2.375" style="243" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="245" customWidth="1"/>
+    <col min="15" max="15" width="5.375" style="243" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="2" style="243" customWidth="1"/>
-    <col min="18" max="18" width="33.1640625" style="243" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" style="243" customWidth="1"/>
-    <col min="20" max="21" width="11.6640625" style="243" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="8.1640625" style="243" customWidth="1"/>
-    <col min="25" max="16384" width="12.6640625" style="243"/>
+    <col min="18" max="18" width="33.125" style="243" customWidth="1"/>
+    <col min="19" max="19" width="39.625" style="243" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="243" customWidth="1"/>
+    <col min="21" max="22" width="11.625" style="243" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.125" style="243" customWidth="1"/>
+    <col min="26" max="16384" width="12.625" style="243"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:20" ht="17.25">
       <c r="A1" s="238"/>
       <c r="B1" s="239" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C1" s="239"/>
       <c r="D1" s="239"/>
@@ -4439,7 +4649,7 @@
       </c>
       <c r="O1" s="245"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="246"/>
       <c r="J2" s="247" t="s">
         <v>179</v>
@@ -4449,169 +4659,187 @@
       </c>
       <c r="L2" s="249"/>
       <c r="N2" s="250" t="s">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="O2" s="251" t="s">
         <v>177</v>
       </c>
       <c r="P2" s="252" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q2" s="253"/>
       <c r="R2" s="253"/>
-      <c r="S2" s="254">
-        <f t="shared" ref="S2:S3" si="0">K1</f>
+      <c r="S2" s="372" t="s">
+        <v>348</v>
+      </c>
+      <c r="T2" s="254">
+        <f t="shared" ref="T2:T3" si="0">K1</f>
         <v>3456</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="246" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="243" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="D3" s="243" t="s">
         <v>183</v>
-      </c>
-      <c r="D3" s="243" t="s">
-        <v>184</v>
       </c>
       <c r="J3" s="247"/>
       <c r="L3" s="255"/>
       <c r="N3" s="256" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="O3" s="257" t="s">
         <v>179</v>
       </c>
       <c r="P3" s="258" t="s">
-        <v>186</v>
-      </c>
-      <c r="S3" s="259">
+        <v>184</v>
+      </c>
+      <c r="S3" s="243" t="s">
+        <v>349</v>
+      </c>
+      <c r="T3" s="259">
         <f t="shared" si="0"/>
         <v>44177</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="246"/>
       <c r="D4" s="260"/>
       <c r="E4" s="260"/>
       <c r="J4" s="247"/>
       <c r="L4" s="255"/>
       <c r="N4" s="261" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="O4" s="262" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P4" s="263" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="264"/>
       <c r="R4" s="264"/>
-      <c r="S4" s="265">
+      <c r="S4" s="264" t="s">
+        <v>357</v>
+      </c>
+      <c r="T4" s="265">
         <f>D18</f>
         <v>44227</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="246"/>
       <c r="J5" s="247" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K5" s="247" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L5" s="266"/>
       <c r="N5" s="267" t="s">
-        <v>192</v>
+        <v>353</v>
       </c>
       <c r="O5" s="268" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P5" s="269" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="270"/>
       <c r="R5" s="270"/>
-      <c r="S5" s="271"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
+      <c r="S5" s="270" t="s">
+        <v>358</v>
+      </c>
+      <c r="T5" s="271"/>
+    </row>
+    <row r="6" spans="1:20" ht="14.25" thickBot="1">
       <c r="A6" s="246"/>
       <c r="C6" s="243" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="243" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="247" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="247" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" s="247" t="s">
         <v>195</v>
-      </c>
-      <c r="D6" s="243" t="s">
-        <v>196</v>
-      </c>
-      <c r="I6" s="247" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="247" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="247" t="s">
-        <v>199</v>
       </c>
       <c r="L6" s="266"/>
       <c r="N6" s="256" t="s">
-        <v>200</v>
+        <v>354</v>
       </c>
       <c r="O6" s="257" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P6" s="258"/>
       <c r="Q6" s="272" t="s">
-        <v>202</v>
-      </c>
-      <c r="S6" s="273" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15">
+        <v>197</v>
+      </c>
+      <c r="S6" s="243" t="s">
+        <v>359</v>
+      </c>
+      <c r="T6" s="273" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="246"/>
       <c r="B7" s="274" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="275" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="276" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="276" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="276" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="276" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="275" t="s">
+      <c r="H7" s="276" t="s">
         <v>204</v>
-      </c>
-      <c r="D7" s="276" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="276" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="276" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="276" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" s="276" t="s">
-        <v>209</v>
       </c>
       <c r="I7" s="276"/>
       <c r="J7" s="276"/>
       <c r="K7" s="277" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L7" s="278"/>
       <c r="N7" s="261" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O7" s="262" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P7" s="263"/>
       <c r="Q7" s="264" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R7" s="264"/>
-      <c r="S7" s="279">
+      <c r="S7" s="264" t="s">
+        <v>360</v>
+      </c>
+      <c r="T7" s="279">
         <f>D4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="246"/>
       <c r="B8" s="280">
         <v>1</v>
@@ -4620,10 +4848,10 @@
         <v>44177</v>
       </c>
       <c r="D8" s="243" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E8" s="243" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F8" s="282">
         <f>1200*1.1</f>
@@ -4633,7 +4861,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="245" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I8" s="245"/>
       <c r="J8" s="245"/>
@@ -4644,19 +4872,22 @@
       <c r="L8" s="284"/>
       <c r="M8" s="282"/>
       <c r="N8" s="267" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="O8" s="285" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P8" s="269" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="270"/>
       <c r="R8" s="270"/>
-      <c r="S8" s="271"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="S8" s="270" t="s">
+        <v>361</v>
+      </c>
+      <c r="T8" s="271"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="246"/>
       <c r="B9" s="286">
         <v>2</v>
@@ -4665,10 +4896,10 @@
         <v>44177</v>
       </c>
       <c r="D9" s="288" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E9" s="288" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F9" s="288">
         <f>500*1.1</f>
@@ -4678,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="289" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I9" s="288"/>
       <c r="J9" s="288"/>
@@ -4687,33 +4918,36 @@
       </c>
       <c r="L9" s="284"/>
       <c r="N9" s="291" t="s">
-        <v>221</v>
+        <v>356</v>
       </c>
       <c r="O9" s="292" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P9" s="293"/>
       <c r="Q9" s="294" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="R9" s="294"/>
-      <c r="S9" s="295" t="str">
+      <c r="S9" s="294" t="s">
+        <v>362</v>
+      </c>
+      <c r="T9" s="295" t="str">
         <f>B3</f>
         <v>（株）〇〇</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="246"/>
       <c r="B10" s="296"/>
       <c r="D10" s="243" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E10" s="243" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F10" s="247"/>
       <c r="J10" s="247" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K10" s="297">
         <f>SUM(K8)+K9</f>
@@ -4721,30 +4955,31 @@
       </c>
       <c r="L10" s="284"/>
       <c r="N10" s="267" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O10" s="285" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P10" s="269" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="270"/>
       <c r="R10" s="270"/>
-      <c r="S10" s="298"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="S10" s="270"/>
+      <c r="T10" s="298"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="246"/>
       <c r="B11" s="299"/>
       <c r="C11" s="264"/>
       <c r="E11" s="264" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F11" s="300"/>
       <c r="G11" s="264"/>
       <c r="H11" s="264"/>
       <c r="I11" s="300" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J11" s="301">
         <f>K10*0.1/1.1</f>
@@ -4754,23 +4989,23 @@
       <c r="L11" s="284"/>
       <c r="M11" s="282"/>
       <c r="N11" s="256" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O11" s="257" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P11" s="258"/>
       <c r="Q11" s="243" t="s">
-        <v>231</v>
-      </c>
-      <c r="S11" s="302">
+        <v>224</v>
+      </c>
+      <c r="T11" s="302">
         <v>7654321</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="246"/>
       <c r="B12" s="303" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C12" s="253"/>
       <c r="D12" s="253"/>
@@ -4781,24 +5016,24 @@
       <c r="I12" s="253"/>
       <c r="J12" s="253"/>
       <c r="K12" s="305" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L12" s="284"/>
       <c r="N12" s="256" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O12" s="257" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P12" s="258"/>
       <c r="Q12" s="243" t="s">
-        <v>235</v>
-      </c>
-      <c r="S12" s="259" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>228</v>
+      </c>
+      <c r="T12" s="259" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="246"/>
       <c r="B13" s="286">
         <v>3</v>
@@ -4807,10 +5042,10 @@
         <v>44177</v>
       </c>
       <c r="D13" s="288" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E13" s="288" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F13" s="288">
         <f>-200*1.1</f>
@@ -4821,7 +5056,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="289" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I13" s="288"/>
       <c r="J13" s="288"/>
@@ -4831,34 +5066,34 @@
       </c>
       <c r="L13" s="284"/>
       <c r="N13" s="256" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O13" s="257" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P13" s="258"/>
       <c r="Q13" s="243" t="s">
-        <v>240</v>
-      </c>
-      <c r="S13" s="302">
+        <v>233</v>
+      </c>
+      <c r="T13" s="302">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="246"/>
       <c r="B14" s="307"/>
       <c r="C14" s="308"/>
       <c r="E14" s="243" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F14" s="282"/>
       <c r="G14" s="245"/>
       <c r="H14" s="245"/>
       <c r="I14" s="245" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J14" s="247" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K14" s="309">
         <f>K13</f>
@@ -4866,31 +5101,31 @@
       </c>
       <c r="L14" s="284"/>
       <c r="N14" s="256" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="O14" s="257" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P14" s="258"/>
       <c r="Q14" s="243" t="s">
-        <v>245</v>
-      </c>
-      <c r="S14" s="302" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>238</v>
+      </c>
+      <c r="T14" s="302" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="246"/>
       <c r="B15" s="307"/>
       <c r="C15" s="308"/>
       <c r="E15" s="243" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F15" s="282"/>
       <c r="G15" s="245"/>
       <c r="H15" s="245"/>
       <c r="I15" s="247" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J15" s="310">
         <f>0.1*K14/1.1</f>
@@ -4899,23 +5134,23 @@
       <c r="K15" s="255"/>
       <c r="L15" s="284"/>
       <c r="N15" s="256" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O15" s="257" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P15" s="258"/>
       <c r="Q15" s="243" t="s">
-        <v>251</v>
-      </c>
-      <c r="S15" s="302">
+        <v>244</v>
+      </c>
+      <c r="T15" s="302">
         <v>3456</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="246"/>
       <c r="B16" s="303" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C16" s="253"/>
       <c r="D16" s="253"/>
@@ -4924,10 +5159,10 @@
       <c r="G16" s="253"/>
       <c r="H16" s="304"/>
       <c r="I16" s="253" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J16" s="304" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K16" s="311">
         <f>SUM(K10,K14)</f>
@@ -4935,20 +5170,20 @@
       </c>
       <c r="L16" s="255"/>
       <c r="N16" s="256" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O16" s="257" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P16" s="258"/>
       <c r="Q16" s="243" t="s">
-        <v>256</v>
-      </c>
-      <c r="S16" s="259" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1">
+        <v>249</v>
+      </c>
+      <c r="T16" s="259" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14.25" thickBot="1">
       <c r="A17" s="246"/>
       <c r="B17" s="312"/>
       <c r="C17" s="313"/>
@@ -4958,7 +5193,7 @@
       <c r="G17" s="313"/>
       <c r="H17" s="313"/>
       <c r="I17" s="314" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J17" s="315">
         <f>J11+J15</f>
@@ -4967,57 +5202,60 @@
       <c r="K17" s="316"/>
       <c r="L17" s="255"/>
       <c r="N17" s="256" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="O17" s="257" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P17" s="258"/>
       <c r="Q17" s="243" t="s">
-        <v>261</v>
-      </c>
-      <c r="S17" s="302">
+        <v>254</v>
+      </c>
+      <c r="T17" s="302">
         <v>789</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" s="246"/>
       <c r="B18" s="243" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D18" s="317">
         <v>44227</v>
       </c>
       <c r="E18" s="317" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K18" s="318"/>
       <c r="L18" s="319"/>
       <c r="N18" s="320" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="O18" s="321" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P18" s="322" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q18" s="323"/>
       <c r="R18" s="323"/>
-      <c r="S18" s="324" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="S18" s="323" t="s">
+        <v>363</v>
+      </c>
+      <c r="T18" s="324" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="246"/>
       <c r="B19" s="243" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D19" s="243" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E19" s="243" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G19" s="243">
         <v>3456</v>
@@ -5028,25 +5266,28 @@
         <v>140</v>
       </c>
       <c r="O19" s="325" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P19" s="270" t="s">
         <v>149</v>
       </c>
       <c r="Q19" s="270"/>
       <c r="R19" s="270"/>
-      <c r="S19" s="271"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="S19" s="270" t="s">
+        <v>364</v>
+      </c>
+      <c r="T19" s="271"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="246"/>
       <c r="B20" s="243" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D20" s="248" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E20" s="243" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G20" s="243">
         <v>789</v>
@@ -5054,30 +5295,33 @@
       <c r="K20" s="318"/>
       <c r="L20" s="319"/>
       <c r="N20" s="326" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O20" s="326" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P20" s="260"/>
       <c r="Q20" s="243" t="s">
-        <v>150</v>
-      </c>
-      <c r="S20" s="327">
+        <v>387</v>
+      </c>
+      <c r="S20" s="243" t="s">
+        <v>365</v>
+      </c>
+      <c r="T20" s="327">
         <f>K14</f>
         <v>-2200.0000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" s="246"/>
       <c r="B21" s="243" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D21" s="248" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E21" s="243" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G21" s="243">
         <v>7654321</v>
@@ -5088,24 +5332,27 @@
         <v>151</v>
       </c>
       <c r="O21" s="326" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P21" s="260"/>
       <c r="Q21" s="243" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="328">
+        <v>386</v>
+      </c>
+      <c r="S21" s="243" t="s">
+        <v>388</v>
+      </c>
+      <c r="T21" s="328">
         <f>J15</f>
         <v>-200.00000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" s="246"/>
       <c r="B22" s="243" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D22" s="248" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E22" s="248"/>
       <c r="K22" s="318"/>
@@ -5114,17 +5361,20 @@
         <v>145</v>
       </c>
       <c r="O22" s="326" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P22" s="260"/>
       <c r="Q22" s="243" t="s">
-        <v>279</v>
-      </c>
-      <c r="S22" s="329" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1">
+        <v>367</v>
+      </c>
+      <c r="S22" s="243" t="s">
+        <v>366</v>
+      </c>
+      <c r="T22" s="329" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14.25" thickBot="1">
       <c r="A23" s="330"/>
       <c r="B23" s="331"/>
       <c r="C23" s="331"/>
@@ -5141,94 +5391,109 @@
         <v>146</v>
       </c>
       <c r="O23" s="335" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P23" s="336"/>
       <c r="Q23" s="294" t="s">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="R23" s="294"/>
-      <c r="S23" s="337">
+      <c r="S23" s="294" t="s">
+        <v>369</v>
+      </c>
+      <c r="T23" s="337">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="B24" s="243" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="N24" s="267" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="O24" s="285" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P24" s="269" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q24" s="270"/>
       <c r="R24" s="270"/>
-      <c r="S24" s="271"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="S24" s="270" t="s">
+        <v>370</v>
+      </c>
+      <c r="T24" s="271"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="N25" s="256" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O25" s="257" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P25" s="258"/>
       <c r="Q25" s="243" t="s">
-        <v>284</v>
-      </c>
-      <c r="S25" s="338">
+        <v>371</v>
+      </c>
+      <c r="S25" s="243" t="s">
+        <v>372</v>
+      </c>
+      <c r="T25" s="338">
         <f>K16</f>
         <v>11550</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="F26" s="247"/>
       <c r="H26" s="247"/>
       <c r="I26" s="282"/>
       <c r="J26" s="282"/>
       <c r="K26" s="282"/>
       <c r="N26" s="256" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O26" s="257" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P26" s="258"/>
       <c r="Q26" s="243" t="s">
-        <v>287</v>
-      </c>
-      <c r="S26" s="327">
-        <f>S20</f>
+        <v>279</v>
+      </c>
+      <c r="S26" s="243" t="s">
+        <v>373</v>
+      </c>
+      <c r="T26" s="327">
+        <f>T20</f>
         <v>-2200.0000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="F27" s="247"/>
       <c r="H27" s="247"/>
       <c r="J27" s="247"/>
       <c r="K27" s="282"/>
       <c r="L27" s="282"/>
       <c r="N27" s="261" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O27" s="334" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="P27" s="263"/>
       <c r="Q27" s="264" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="R27" s="264"/>
-      <c r="S27" s="339">
+      <c r="S27" s="264" t="s">
+        <v>374</v>
+      </c>
+      <c r="T27" s="339">
         <f>J17</f>
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="D28" s="260"/>
       <c r="E28" s="260"/>
       <c r="F28" s="247"/>
@@ -5238,262 +5503,301 @@
       <c r="K28" s="282"/>
       <c r="M28" s="282"/>
       <c r="N28" s="267" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="O28" s="285" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P28" s="269" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q28" s="270"/>
       <c r="R28" s="270"/>
-      <c r="S28" s="341"/>
-      <c r="T28" s="342"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="S28" s="270" t="s">
+        <v>375</v>
+      </c>
+      <c r="T28" s="341"/>
+      <c r="U28" s="342"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="L29" s="282"/>
       <c r="N29" s="256" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O29" s="257" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P29" s="258"/>
       <c r="Q29" s="243" t="s">
-        <v>295</v>
-      </c>
-      <c r="S29" s="343">
+        <v>287</v>
+      </c>
+      <c r="S29" s="243" t="s">
+        <v>376</v>
+      </c>
+      <c r="T29" s="343">
         <f>J11</f>
         <v>1250</v>
       </c>
-      <c r="T29" s="344"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29" s="344"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="N30" s="256" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="O30" s="257" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P30" s="258"/>
       <c r="Q30" s="243" t="s">
-        <v>297</v>
-      </c>
-      <c r="S30" s="345">
+        <v>289</v>
+      </c>
+      <c r="S30" s="243" t="s">
+        <v>377</v>
+      </c>
+      <c r="T30" s="345">
         <v>0.1</v>
       </c>
-      <c r="T30" s="346">
+      <c r="U30" s="346">
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="M31" s="282"/>
       <c r="N31" s="256" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O31" s="257" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P31" s="258"/>
       <c r="Q31" s="243" t="s">
-        <v>279</v>
-      </c>
-      <c r="S31" s="329" t="s">
-        <v>280</v>
-      </c>
-      <c r="T31" s="347" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>272</v>
+      </c>
+      <c r="S31" s="243" t="s">
+        <v>378</v>
+      </c>
+      <c r="T31" s="329" t="s">
+        <v>273</v>
+      </c>
+      <c r="U31" s="347" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="N32" s="261" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O32" s="334" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P32" s="263"/>
       <c r="Q32" s="264" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="R32" s="264"/>
-      <c r="S32" s="348">
+      <c r="S32" s="264" t="s">
+        <v>379</v>
+      </c>
+      <c r="T32" s="348">
         <f>K10</f>
         <v>13750</v>
       </c>
-      <c r="T32" s="349"/>
-    </row>
-    <row r="33" spans="2:21">
+      <c r="U32" s="349"/>
+    </row>
+    <row r="33" spans="2:22">
       <c r="N33" s="267" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="O33" s="285" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P33" s="269" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q33" s="270"/>
       <c r="R33" s="270"/>
-      <c r="S33" s="341"/>
-      <c r="T33" s="350"/>
-      <c r="U33" s="342"/>
-    </row>
-    <row r="34" spans="2:21">
+      <c r="S33" s="270" t="s">
+        <v>380</v>
+      </c>
+      <c r="T33" s="341"/>
+      <c r="U33" s="350"/>
+      <c r="V33" s="342"/>
+    </row>
+    <row r="34" spans="2:22">
       <c r="N34" s="256" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="O34" s="257" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P34" s="258"/>
       <c r="Q34" s="243" t="s">
-        <v>307</v>
-      </c>
-      <c r="S34" s="351">
+        <v>299</v>
+      </c>
+      <c r="S34" s="243" t="s">
+        <v>381</v>
+      </c>
+      <c r="T34" s="351">
         <f>B8</f>
         <v>1</v>
       </c>
-      <c r="T34" s="245">
+      <c r="U34" s="245">
         <v>2</v>
       </c>
-      <c r="U34" s="352">
+      <c r="V34" s="352">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:22">
       <c r="M35" s="282"/>
       <c r="N35" s="256" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O35" s="257" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P35" s="258"/>
       <c r="Q35" s="243" t="s">
-        <v>310</v>
-      </c>
-      <c r="S35" s="353" t="s">
-        <v>311</v>
-      </c>
-      <c r="T35" s="317" t="s">
-        <v>312</v>
-      </c>
-      <c r="U35" s="352" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" ht="17">
+        <v>302</v>
+      </c>
+      <c r="S35" s="243" t="s">
+        <v>385</v>
+      </c>
+      <c r="T35" s="353" t="s">
+        <v>303</v>
+      </c>
+      <c r="U35" s="317" t="s">
+        <v>304</v>
+      </c>
+      <c r="V35" s="352" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" ht="17.25">
       <c r="G36" s="354"/>
       <c r="J36" s="247"/>
       <c r="N36" s="256" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="O36" s="257" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P36" s="258"/>
       <c r="Q36" s="243" t="s">
-        <v>315</v>
-      </c>
-      <c r="S36" s="302">
+        <v>382</v>
+      </c>
+      <c r="S36" s="243" t="s">
+        <v>383</v>
+      </c>
+      <c r="T36" s="302">
         <f>G8</f>
         <v>10</v>
       </c>
-      <c r="T36" s="243">
+      <c r="U36" s="243">
         <v>1</v>
       </c>
-      <c r="U36" s="355"/>
-    </row>
-    <row r="37" spans="2:21">
+      <c r="V36" s="355"/>
+    </row>
+    <row r="37" spans="2:22">
       <c r="J37" s="247"/>
       <c r="K37" s="248"/>
       <c r="L37" s="248"/>
       <c r="N37" s="256" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="O37" s="257" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P37" s="258"/>
       <c r="Q37" s="243" t="s">
-        <v>318</v>
-      </c>
-      <c r="S37" s="302" t="s">
-        <v>319</v>
-      </c>
-      <c r="T37" s="243" t="s">
-        <v>320</v>
-      </c>
-      <c r="U37" s="355"/>
-    </row>
-    <row r="38" spans="2:21">
+        <v>309</v>
+      </c>
+      <c r="S37" s="243" t="s">
+        <v>384</v>
+      </c>
+      <c r="T37" s="302" t="s">
+        <v>310</v>
+      </c>
+      <c r="U37" s="243" t="s">
+        <v>311</v>
+      </c>
+      <c r="V37" s="355"/>
+    </row>
+    <row r="38" spans="2:22">
       <c r="J38" s="247"/>
       <c r="N38" s="256" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="O38" s="257" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="P38" s="258"/>
       <c r="Q38" s="243" t="s">
-        <v>323</v>
-      </c>
-      <c r="S38" s="356">
+        <v>314</v>
+      </c>
+      <c r="S38" s="243" t="s">
+        <v>389</v>
+      </c>
+      <c r="T38" s="356">
         <f>K8</f>
         <v>13200</v>
       </c>
-      <c r="T38" s="282">
+      <c r="U38" s="282">
         <f>K9</f>
         <v>550</v>
       </c>
-      <c r="U38" s="355"/>
-    </row>
-    <row r="39" spans="2:21">
+      <c r="V38" s="355"/>
+    </row>
+    <row r="39" spans="2:22">
       <c r="D39" s="260"/>
       <c r="E39" s="260"/>
       <c r="J39" s="247"/>
       <c r="N39" s="357" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="O39" s="358" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P39" s="359"/>
       <c r="Q39" s="350" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="R39" s="350"/>
-      <c r="S39" s="360"/>
-      <c r="T39" s="350"/>
-      <c r="U39" s="360"/>
-    </row>
-    <row r="40" spans="2:21">
+      <c r="S39" s="350" t="s">
+        <v>390</v>
+      </c>
+      <c r="T39" s="360"/>
+      <c r="U39" s="350"/>
+      <c r="V39" s="360"/>
+    </row>
+    <row r="40" spans="2:22">
       <c r="J40" s="247"/>
       <c r="K40" s="247"/>
       <c r="L40" s="247"/>
       <c r="N40" s="256" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="O40" s="257" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P40" s="258"/>
       <c r="R40" s="243" t="s">
-        <v>279</v>
-      </c>
-      <c r="S40" s="352" t="s">
-        <v>280</v>
-      </c>
-      <c r="T40" s="245" t="s">
-        <v>280</v>
-      </c>
-      <c r="U40" s="352" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21">
+        <v>272</v>
+      </c>
+      <c r="S40" s="243" t="s">
+        <v>391</v>
+      </c>
+      <c r="T40" s="352" t="s">
+        <v>273</v>
+      </c>
+      <c r="U40" s="245" t="s">
+        <v>273</v>
+      </c>
+      <c r="V40" s="352" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
       <c r="J41" s="247"/>
       <c r="K41" s="361"/>
       <c r="L41" s="247"/>
@@ -5501,24 +5805,27 @@
         <v>101</v>
       </c>
       <c r="O41" s="292" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P41" s="293"/>
       <c r="Q41" s="294"/>
       <c r="R41" s="294" t="s">
-        <v>297</v>
-      </c>
-      <c r="S41" s="337">
+        <v>289</v>
+      </c>
+      <c r="S41" s="294" t="s">
+        <v>392</v>
+      </c>
+      <c r="T41" s="337">
         <v>0.1</v>
       </c>
-      <c r="T41" s="362">
+      <c r="U41" s="362">
         <v>0.1</v>
       </c>
-      <c r="U41" s="337">
+      <c r="V41" s="337">
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:22">
       <c r="B42" s="363"/>
       <c r="C42" s="245"/>
       <c r="D42" s="245"/>
@@ -5531,242 +5838,282 @@
       <c r="K42" s="245"/>
       <c r="L42" s="245"/>
       <c r="N42" s="267" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="O42" s="285" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P42" s="269"/>
       <c r="Q42" s="270" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="R42" s="270"/>
-      <c r="S42" s="271"/>
-      <c r="T42" s="270"/>
-      <c r="U42" s="355"/>
-    </row>
-    <row r="43" spans="2:21">
-      <c r="B43" s="364"/>
+      <c r="S42" s="270" t="s">
+        <v>394</v>
+      </c>
+      <c r="T42" s="271"/>
+      <c r="U42" s="270"/>
+      <c r="V42" s="355"/>
+    </row>
+    <row r="43" spans="2:22">
       <c r="C43" s="308"/>
+      <c r="D43" s="282"/>
+      <c r="E43" s="282"/>
       <c r="F43" s="282"/>
       <c r="G43" s="245"/>
       <c r="H43" s="245"/>
-      <c r="I43" s="245"/>
-      <c r="J43" s="245"/>
+      <c r="I43" s="282"/>
+      <c r="J43" s="282"/>
       <c r="K43" s="282"/>
       <c r="L43" s="282"/>
       <c r="N43" s="256" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="O43" s="257" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P43" s="258"/>
       <c r="R43" s="243" t="s">
-        <v>332</v>
-      </c>
-      <c r="S43" s="302" t="str">
-        <f>D8</f>
-        <v>鉛筆（１ダース入り）</v>
-      </c>
-      <c r="T43" s="282" t="str">
-        <f>D9</f>
-        <v>送料</v>
-      </c>
-      <c r="U43" s="355"/>
-    </row>
-    <row r="44" spans="2:21">
-      <c r="C44" s="308"/>
-      <c r="D44" s="282"/>
-      <c r="E44" s="282"/>
-      <c r="F44" s="282"/>
-      <c r="G44" s="245"/>
-      <c r="H44" s="245"/>
+        <v>325</v>
+      </c>
+      <c r="S43" s="243" t="s">
+        <v>398</v>
+      </c>
+      <c r="T43" s="356">
+        <f>F8</f>
+        <v>1320</v>
+      </c>
+      <c r="U43" s="282">
+        <f>F9</f>
+        <v>550</v>
+      </c>
+      <c r="V43" s="355"/>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="F44" s="247"/>
+      <c r="H44" s="247"/>
       <c r="I44" s="282"/>
       <c r="J44" s="282"/>
       <c r="K44" s="282"/>
       <c r="L44" s="282"/>
       <c r="N44" s="256" t="s">
-        <v>333</v>
-      </c>
-      <c r="O44" s="257" t="s">
-        <v>334</v>
+        <v>326</v>
+      </c>
+      <c r="O44" s="326" t="s">
+        <v>327</v>
       </c>
       <c r="P44" s="258"/>
       <c r="R44" s="243" t="s">
-        <v>335</v>
-      </c>
-      <c r="S44" s="356">
-        <f>F8</f>
-        <v>1320</v>
-      </c>
-      <c r="T44" s="282">
-        <f>F9</f>
-        <v>550</v>
-      </c>
-      <c r="U44" s="355"/>
-    </row>
-    <row r="45" spans="2:21">
-      <c r="F45" s="247"/>
-      <c r="H45" s="247"/>
-      <c r="I45" s="282"/>
-      <c r="J45" s="282"/>
-      <c r="K45" s="282"/>
-      <c r="L45" s="282"/>
-      <c r="N45" s="256" t="s">
-        <v>336</v>
-      </c>
-      <c r="O45" s="326" t="s">
-        <v>337</v>
-      </c>
-      <c r="P45" s="258"/>
-      <c r="R45" s="243" t="s">
-        <v>338</v>
-      </c>
-      <c r="S45" s="352" t="s">
-        <v>319</v>
-      </c>
-      <c r="T45" s="245" t="s">
-        <v>320</v>
-      </c>
-      <c r="U45" s="355"/>
-    </row>
-    <row r="46" spans="2:21">
-      <c r="N46" s="357" t="s">
-        <v>339</v>
-      </c>
-      <c r="O46" s="358"/>
-      <c r="P46" s="359"/>
-      <c r="Q46" s="350" t="s">
+        <v>328</v>
+      </c>
+      <c r="S44" s="243" t="s">
+        <v>400</v>
+      </c>
+      <c r="T44" s="352" t="s">
+        <v>310</v>
+      </c>
+      <c r="U44" s="245" t="s">
+        <v>311</v>
+      </c>
+      <c r="V44" s="355"/>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="N45" s="357" t="s">
+        <v>329</v>
+      </c>
+      <c r="O45" s="358"/>
+      <c r="P45" s="359"/>
+      <c r="Q45" s="350" t="s">
         <v>105</v>
       </c>
-      <c r="R46" s="350"/>
-      <c r="S46" s="365"/>
-      <c r="T46" s="366"/>
-      <c r="U46" s="360"/>
-    </row>
-    <row r="47" spans="2:21">
-      <c r="B47" s="364"/>
-      <c r="C47" s="308"/>
-      <c r="F47" s="282"/>
-      <c r="G47" s="245"/>
-      <c r="H47" s="245"/>
-      <c r="I47" s="245"/>
-      <c r="J47" s="245"/>
+      <c r="R45" s="350"/>
+      <c r="S45" s="350" t="s">
+        <v>401</v>
+      </c>
+      <c r="T45" s="365"/>
+      <c r="U45" s="366"/>
+      <c r="V45" s="360"/>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" s="364"/>
+      <c r="C46" s="308"/>
+      <c r="F46" s="282"/>
+      <c r="G46" s="245"/>
+      <c r="H46" s="245"/>
+      <c r="I46" s="245"/>
+      <c r="J46" s="245"/>
+      <c r="K46" s="282"/>
+      <c r="L46" s="282"/>
+      <c r="N46" s="256" t="s">
+        <v>330</v>
+      </c>
+      <c r="O46" s="257" t="s">
+        <v>223</v>
+      </c>
+      <c r="P46" s="258"/>
+      <c r="R46" s="243" t="s">
+        <v>331</v>
+      </c>
+      <c r="S46" s="243" t="s">
+        <v>402</v>
+      </c>
+      <c r="T46" s="355"/>
+      <c r="U46" s="367"/>
+      <c r="V46" s="356">
+        <f>K14</f>
+        <v>-2200.0000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="F47" s="247"/>
+      <c r="H47" s="247"/>
       <c r="K47" s="282"/>
       <c r="L47" s="282"/>
-      <c r="N47" s="256" t="s">
-        <v>340</v>
-      </c>
-      <c r="O47" s="257" t="s">
-        <v>230</v>
-      </c>
-      <c r="P47" s="258"/>
-      <c r="R47" s="243" t="s">
-        <v>341</v>
-      </c>
-      <c r="S47" s="355"/>
-      <c r="T47" s="367"/>
-      <c r="U47" s="356">
-        <f>K14</f>
-        <v>-2200.0000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21">
+      <c r="N47" s="291" t="s">
+        <v>332</v>
+      </c>
+      <c r="O47" s="292"/>
+      <c r="P47" s="293"/>
+      <c r="Q47" s="294"/>
+      <c r="R47" s="294" t="s">
+        <v>333</v>
+      </c>
+      <c r="S47" s="294" t="s">
+        <v>403</v>
+      </c>
+      <c r="T47" s="368"/>
+      <c r="U47" s="369"/>
+      <c r="V47" s="295" t="str">
+        <f>B12</f>
+        <v>値引き</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
       <c r="F48" s="247"/>
       <c r="H48" s="247"/>
       <c r="K48" s="282"/>
       <c r="L48" s="282"/>
-      <c r="N48" s="291" t="s">
-        <v>342</v>
-      </c>
-      <c r="O48" s="292"/>
-      <c r="P48" s="293"/>
-      <c r="Q48" s="294"/>
-      <c r="R48" s="294" t="s">
-        <v>343</v>
-      </c>
-      <c r="S48" s="368"/>
-      <c r="T48" s="369"/>
-      <c r="U48" s="295" t="str">
-        <f>B12</f>
-        <v>値引き</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15">
-      <c r="F49" s="247"/>
-      <c r="H49" s="247"/>
-      <c r="I49" s="282"/>
-      <c r="J49" s="282"/>
+      <c r="N48" s="267" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" s="285"/>
+      <c r="P48" s="269"/>
+      <c r="Q48" s="270" t="s">
+        <v>395</v>
+      </c>
+      <c r="R48" s="375"/>
+      <c r="S48" s="270" t="s">
+        <v>396</v>
+      </c>
+      <c r="T48" s="376"/>
+      <c r="U48" s="377"/>
+      <c r="V48" s="355"/>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" s="364"/>
+      <c r="C49" s="308"/>
+      <c r="F49" s="282"/>
+      <c r="G49" s="245"/>
+      <c r="H49" s="245"/>
+      <c r="I49" s="245"/>
+      <c r="J49" s="245"/>
       <c r="K49" s="282"/>
-      <c r="N49" s="243"/>
-      <c r="O49" s="245"/>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="D50" s="317"/>
-      <c r="E50" s="317"/>
+      <c r="L49" s="282"/>
+      <c r="N49" s="291" t="s">
+        <v>321</v>
+      </c>
+      <c r="O49" s="292" t="s">
+        <v>322</v>
+      </c>
+      <c r="P49" s="293"/>
+      <c r="Q49" s="294"/>
+      <c r="R49" s="294" t="s">
+        <v>323</v>
+      </c>
+      <c r="S49" s="294" t="s">
+        <v>397</v>
+      </c>
+      <c r="T49" s="295" t="str">
+        <f>D8</f>
+        <v>鉛筆（１ダース入り）</v>
+      </c>
+      <c r="U49" s="373" t="str">
+        <f>D9</f>
+        <v>送料</v>
+      </c>
+      <c r="V49" s="374"/>
+    </row>
+    <row r="50" spans="2:22">
+      <c r="F50" s="247"/>
+      <c r="H50" s="247"/>
+      <c r="I50" s="282"/>
+      <c r="J50" s="282"/>
+      <c r="K50" s="282"/>
+      <c r="N50" s="243"/>
       <c r="O50" s="245"/>
     </row>
-    <row r="51" spans="2:15">
-      <c r="H51" s="247"/>
-      <c r="K51" s="282"/>
-      <c r="L51" s="282"/>
+    <row r="51" spans="2:22">
+      <c r="D51" s="317"/>
+      <c r="E51" s="317"/>
       <c r="O51" s="245"/>
     </row>
-    <row r="52" spans="2:15">
-      <c r="D52" s="248"/>
-      <c r="E52" s="248"/>
-      <c r="K52" s="318"/>
-      <c r="L52" s="318"/>
+    <row r="52" spans="2:22">
+      <c r="H52" s="247"/>
+      <c r="K52" s="282"/>
+      <c r="L52" s="282"/>
       <c r="O52" s="245"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:22">
       <c r="D53" s="248"/>
       <c r="E53" s="248"/>
       <c r="K53" s="318"/>
       <c r="L53" s="318"/>
       <c r="O53" s="245"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:22">
       <c r="D54" s="248"/>
       <c r="E54" s="248"/>
       <c r="K54" s="318"/>
       <c r="L54" s="318"/>
       <c r="O54" s="245"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:22">
+      <c r="D55" s="248"/>
+      <c r="E55" s="248"/>
       <c r="K55" s="318"/>
       <c r="L55" s="318"/>
       <c r="O55" s="245"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:22">
+      <c r="K56" s="318"/>
+      <c r="L56" s="318"/>
       <c r="O56" s="245"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:22">
       <c r="O57" s="245"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:22">
       <c r="O58" s="245"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:22">
       <c r="O59" s="245"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:22">
       <c r="O60" s="245"/>
     </row>
-    <row r="61" spans="2:15">
-      <c r="B61" s="243" t="s">
-        <v>344</v>
-      </c>
+    <row r="61" spans="2:22">
       <c r="O61" s="245"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:22">
+      <c r="B62" s="243" t="s">
+        <v>334</v>
+      </c>
       <c r="O62" s="245"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:22">
       <c r="O63" s="245"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:22">
       <c r="O64" s="245"/>
     </row>
     <row r="65" spans="15:15">
@@ -8588,6 +8935,9 @@
     </row>
     <row r="1004" spans="15:15">
       <c r="O1004" s="245"/>
+    </row>
+    <row r="1005" spans="15:15">
+      <c r="O1005" s="245"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -8604,11 +8954,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" customWidth="1"/>
-    <col min="3" max="11" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8616,7 +8966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19" thickBot="1">
+    <row r="2" spans="1:11" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>82</v>
       </c>
@@ -8867,7 +9217,7 @@
       <c r="J15" s="81"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" ht="19">
+    <row r="16" spans="1:11">
       <c r="A16" s="234" t="s">
         <v>55</v>
       </c>
@@ -8972,7 +9322,7 @@
       <c r="J20" s="211"/>
       <c r="K20" s="212"/>
     </row>
-    <row r="21" spans="1:11" ht="19">
+    <row r="21" spans="1:11">
       <c r="A21" s="234" t="s">
         <v>62</v>
       </c>
@@ -9007,7 +9357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19">
+    <row r="22" spans="1:11">
       <c r="A22" s="234" t="s">
         <v>138</v>
       </c>
@@ -9038,7 +9388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19">
+    <row r="23" spans="1:11">
       <c r="A23" s="234" t="s">
         <v>92</v>
       </c>
@@ -9245,7 +9595,7 @@
       <c r="J29" s="218"/>
       <c r="K29" s="219"/>
     </row>
-    <row r="30" spans="1:11" ht="19" thickBot="1">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1">
       <c r="A30" s="234" t="s">
         <v>96</v>
       </c>
@@ -9290,14 +9640,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="14" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="3" max="14" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" thickBot="1">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
       <c r="B1" s="236" t="s">
         <v>174</v>
       </c>
@@ -9580,7 +9930,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" ht="19">
+    <row r="16" spans="1:11">
       <c r="A16" s="132" t="s">
         <v>154</v>
       </c>
@@ -9657,7 +10007,7 @@
       <c r="J19" s="30"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:12" ht="19">
+    <row r="20" spans="1:12">
       <c r="A20" s="234" t="s">
         <v>55</v>
       </c>
@@ -9762,7 +10112,7 @@
       <c r="J24" s="211"/>
       <c r="K24" s="212"/>
     </row>
-    <row r="25" spans="1:12" ht="19">
+    <row r="25" spans="1:12">
       <c r="A25" s="234" t="s">
         <v>92</v>
       </c>
@@ -10020,7 +10370,7 @@
       <c r="J33" s="210"/>
       <c r="K33" s="219"/>
     </row>
-    <row r="34" spans="1:11" ht="19">
+    <row r="34" spans="1:11">
       <c r="A34" s="172" t="s">
         <v>153</v>
       </c>
@@ -10041,7 +10391,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="39" thickBot="1">
+    <row r="35" spans="1:11" ht="38.25" thickBot="1">
       <c r="A35" s="234" t="s">
         <v>106</v>
       </c>
@@ -10089,15 +10439,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="172" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="120" customWidth="1"/>
-    <col min="3" max="13" width="15.83203125" style="120" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="120"/>
+    <col min="2" max="2" width="39.375" style="120" customWidth="1"/>
+    <col min="3" max="13" width="15.875" style="120" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
       <c r="B1" s="236" t="s">
         <v>175</v>
       </c>
@@ -10373,7 +10723,7 @@
       <c r="I16" s="126"/>
       <c r="J16" s="127"/>
     </row>
-    <row r="17" spans="1:14" ht="19">
+    <row r="17" spans="1:14">
       <c r="A17" s="172" t="s">
         <v>154</v>
       </c>
@@ -10447,7 +10797,7 @@
       <c r="I20" s="126"/>
       <c r="J20" s="127"/>
     </row>
-    <row r="21" spans="1:14" ht="19">
+    <row r="21" spans="1:14">
       <c r="A21" s="172" t="s">
         <v>55</v>
       </c>
@@ -10547,7 +10897,7 @@
       <c r="I25" s="204"/>
       <c r="J25" s="198"/>
     </row>
-    <row r="26" spans="1:14" ht="19">
+    <row r="26" spans="1:14">
       <c r="A26" s="172" t="s">
         <v>92</v>
       </c>
@@ -10784,7 +11134,7 @@
       <c r="I34" s="161"/>
       <c r="J34" s="198"/>
     </row>
-    <row r="35" spans="1:10" ht="19">
+    <row r="35" spans="1:10">
       <c r="A35" s="172" t="s">
         <v>153</v>
       </c>
@@ -10802,7 +11152,7 @@
         <v>-3300</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39" thickBot="1">
+    <row r="36" spans="1:10" ht="38.25" thickBot="1">
       <c r="A36" s="172" t="s">
         <v>106</v>
       </c>
@@ -10833,6 +11183,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D22" formula="1"/>
   </ignoredErrors>
@@ -10843,15 +11194,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB84FC91-A49E-6940-B430-083C02EC8EE9}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="12" width="15.83203125" customWidth="1"/>
+    <col min="3" max="12" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10859,7 +11210,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" thickBot="1">
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
@@ -11201,7 +11552,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19" thickBot="1">
+    <row r="14" spans="1:12" ht="19.5" thickBot="1">
       <c r="A14" s="234" t="s">
         <v>101</v>
       </c>
@@ -11239,7 +11590,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" thickBot="1">
+    <row r="16" spans="1:12" ht="19.5" thickBot="1">
       <c r="B16" s="46" t="s">
         <v>21</v>
       </c>
@@ -11433,7 +11784,7 @@
       <c r="E29" s="30"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:11" ht="19">
+    <row r="30" spans="1:11">
       <c r="A30" s="234" t="s">
         <v>55</v>
       </c>
@@ -11513,7 +11864,7 @@
       <c r="E34" s="211"/>
       <c r="F34" s="212"/>
     </row>
-    <row r="35" spans="1:6" ht="19">
+    <row r="35" spans="1:6">
       <c r="A35" s="234" t="s">
         <v>62</v>
       </c>
@@ -11553,7 +11904,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="19" thickBot="1">
+    <row r="37" spans="1:6" ht="19.5" thickBot="1">
       <c r="A37" s="234" t="s">
         <v>66</v>
       </c>
@@ -11595,13 +11946,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="23" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="23" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -11609,7 +11960,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="19" thickBot="1">
+    <row r="2" spans="1:19" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>21</v>
       </c>
@@ -11964,7 +12315,7 @@
       <c r="R15" s="81"/>
       <c r="S15" s="31"/>
     </row>
-    <row r="16" spans="1:19" ht="19">
+    <row r="16" spans="1:19">
       <c r="A16" s="234" t="s">
         <v>55</v>
       </c>
@@ -12109,7 +12460,7 @@
       <c r="R20" s="211"/>
       <c r="S20" s="212"/>
     </row>
-    <row r="21" spans="1:19" ht="19">
+    <row r="21" spans="1:19">
       <c r="A21" s="234" t="s">
         <v>62</v>
       </c>
@@ -12168,7 +12519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="19">
+    <row r="22" spans="1:19">
       <c r="A22" s="234" t="s">
         <v>138</v>
       </c>
@@ -12213,7 +12564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="19">
+    <row r="23" spans="1:19">
       <c r="A23" s="234" t="s">
         <v>92</v>
       </c>
@@ -12551,7 +12902,7 @@
       <c r="R29" s="218"/>
       <c r="S29" s="219"/>
     </row>
-    <row r="30" spans="1:19" ht="19" thickBot="1">
+    <row r="30" spans="1:19" ht="19.5" thickBot="1">
       <c r="A30" s="234" t="s">
         <v>96</v>
       </c>
@@ -12614,11 +12965,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="12" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="12" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -12626,7 +12977,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" thickBot="1">
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
@@ -12889,7 +13240,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="234">
-        <f t="shared" ref="A6:A15" si="1">ROW()-1</f>
+        <f t="shared" ref="A12" si="1">ROW()-1</f>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -13006,7 +13357,7 @@
         <v>28980</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19" thickBot="1">
+    <row r="15" spans="1:12" ht="19.5" thickBot="1">
       <c r="A15" s="234" t="s">
         <v>101</v>
       </c>
@@ -13044,7 +13395,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19" thickBot="1">
+    <row r="17" spans="1:11" ht="19.5" thickBot="1">
       <c r="B17" s="46" t="s">
         <v>21</v>
       </c>
@@ -13262,7 +13613,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="19">
+    <row r="31" spans="1:11">
       <c r="A31" s="234" t="s">
         <v>55</v>
       </c>
@@ -13342,7 +13693,7 @@
       <c r="E35" s="211"/>
       <c r="F35" s="212"/>
     </row>
-    <row r="36" spans="1:6" ht="19">
+    <row r="36" spans="1:6">
       <c r="A36" s="234" t="s">
         <v>62</v>
       </c>
@@ -13382,7 +13733,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="19" thickBot="1">
+    <row r="38" spans="1:6" ht="19.5" thickBot="1">
       <c r="A38" s="234" t="s">
         <v>66</v>
       </c>
@@ -13424,14 +13775,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="22" width="10.83203125" customWidth="1"/>
-    <col min="23" max="24" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="22" width="10.875" customWidth="1"/>
+    <col min="23" max="24" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -13439,7 +13790,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="19" thickBot="1">
+    <row r="2" spans="1:23" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>21</v>
       </c>
@@ -13810,7 +14161,7 @@
       <c r="S15" s="81"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" spans="1:23" ht="19">
+    <row r="16" spans="1:23">
       <c r="A16" s="234" t="s">
         <v>55</v>
       </c>
@@ -13960,7 +14311,7 @@
       <c r="S20" s="211"/>
       <c r="T20" s="212"/>
     </row>
-    <row r="21" spans="1:20" ht="19">
+    <row r="21" spans="1:20">
       <c r="A21" s="234" t="s">
         <v>62</v>
       </c>
@@ -14022,7 +14373,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19">
+    <row r="22" spans="1:20">
       <c r="A22" s="234" t="s">
         <v>138</v>
       </c>
@@ -14068,7 +14419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="19">
+    <row r="23" spans="1:20">
       <c r="A23" s="234" t="s">
         <v>92</v>
       </c>
@@ -14422,7 +14773,7 @@
       <c r="S29" s="218"/>
       <c r="T29" s="219"/>
     </row>
-    <row r="30" spans="1:20" ht="19" thickBot="1">
+    <row r="30" spans="1:20" ht="19.5" thickBot="1">
       <c r="A30" s="234" t="s">
         <v>96</v>
       </c>
@@ -14491,11 +14842,11 @@
       <selection activeCell="A6" sqref="A6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="11" width="15.83203125" customWidth="1"/>
+    <col min="3" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14503,14 +14854,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19" thickBot="1">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="234" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -14548,7 +14899,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="234" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -14567,7 +14918,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="234" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -14582,10 +14933,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="234" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C7" s="371" t="s">
         <v>125</v>
@@ -14601,18 +14952,18 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="234" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C8" s="371" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="371" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -14620,7 +14971,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="234" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -14658,7 +15009,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="234" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -14677,7 +15028,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="234" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>65</v>
@@ -14698,7 +15049,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="234" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -14756,7 +15107,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="234" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -14783,9 +15134,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19" thickBot="1">
+    <row r="16" spans="1:9" ht="19.5" thickBot="1">
       <c r="A16" s="234" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -14812,7 +15163,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19" thickBot="1">
+    <row r="18" spans="1:4" ht="19.5" thickBot="1">
       <c r="B18" s="46" t="s">
         <v>21</v>
       </c>
@@ -14927,7 +15278,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="235" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B28" s="84" t="s">
         <v>75</v>
@@ -14937,10 +15288,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="234" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C29" s="371" t="s">
         <v>125</v>
@@ -14949,13 +15300,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="234" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C30" s="371" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D30" s="31"/>
     </row>
@@ -15018,7 +15369,7 @@
       <c r="C35" s="209"/>
       <c r="D35" s="212"/>
     </row>
-    <row r="36" spans="1:4" ht="19">
+    <row r="36" spans="1:4">
       <c r="A36" s="234" t="s">
         <v>55</v>
       </c>
@@ -15088,7 +15439,7 @@
       <c r="C40" s="209"/>
       <c r="D40" s="212"/>
     </row>
-    <row r="41" spans="1:4" ht="19">
+    <row r="41" spans="1:4">
       <c r="A41" s="234" t="s">
         <v>62</v>
       </c>
@@ -15116,7 +15467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19" thickBot="1">
+    <row r="43" spans="1:4" ht="19.5" thickBot="1">
       <c r="A43" s="234" t="s">
         <v>66</v>
       </c>
@@ -15150,11 +15501,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="11" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -15162,7 +15513,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19" thickBot="1">
+    <row r="2" spans="1:11" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>21</v>
       </c>
@@ -15413,7 +15764,7 @@
       <c r="J15" s="81"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" ht="19">
+    <row r="16" spans="1:11">
       <c r="A16" s="234" t="s">
         <v>55</v>
       </c>
@@ -15518,7 +15869,7 @@
       <c r="J20" s="211"/>
       <c r="K20" s="212"/>
     </row>
-    <row r="21" spans="1:11" ht="19">
+    <row r="21" spans="1:11">
       <c r="A21" s="234" t="s">
         <v>62</v>
       </c>
@@ -15553,7 +15904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19">
+    <row r="22" spans="1:11">
       <c r="A22" s="234" t="s">
         <v>138</v>
       </c>
@@ -15584,7 +15935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19">
+    <row r="23" spans="1:11">
       <c r="A23" s="234" t="s">
         <v>92</v>
       </c>
@@ -15791,7 +16142,7 @@
       <c r="J29" s="218"/>
       <c r="K29" s="219"/>
     </row>
-    <row r="30" spans="1:11" ht="19" thickBot="1">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1">
       <c r="A30" s="234" t="s">
         <v>96</v>
       </c>
@@ -15839,14 +16190,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="14" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="14" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
       <c r="B1" s="236" t="s">
         <v>171</v>
       </c>
@@ -16057,7 +16408,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:10" ht="19">
+    <row r="14" spans="1:10">
       <c r="A14" s="234" t="s">
         <v>55</v>
       </c>
@@ -16152,7 +16503,7 @@
       <c r="H18" s="211"/>
       <c r="I18" s="212"/>
     </row>
-    <row r="19" spans="1:12" ht="19">
+    <row r="19" spans="1:12">
       <c r="A19" s="234" t="s">
         <v>92</v>
       </c>
@@ -16329,7 +16680,7 @@
       <c r="H25" s="218"/>
       <c r="I25" s="219"/>
     </row>
-    <row r="26" spans="1:12" ht="19" thickBot="1">
+    <row r="26" spans="1:12" ht="19.5" thickBot="1">
       <c r="A26" s="234" t="s">
         <v>96</v>
       </c>
@@ -16375,11 +16726,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="11" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -16387,14 +16738,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19" thickBot="1">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="234" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -16432,7 +16783,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="234" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -16451,7 +16802,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="234" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -16466,10 +16817,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="234" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C7" s="371" t="s">
         <v>125</v>
@@ -16485,18 +16836,18 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="234" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C8" s="371" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="371" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -16504,7 +16855,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="234" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -16523,7 +16874,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="234" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>28</v>
@@ -16542,7 +16893,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="234" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -16640,7 +16991,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="234" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -16667,9 +17018,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19" thickBot="1">
+    <row r="16" spans="1:9" ht="19.5" thickBot="1">
       <c r="A16" s="234" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -16696,7 +17047,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19" thickBot="1">
+    <row r="18" spans="1:4" ht="19.5" thickBot="1">
       <c r="B18" s="46" t="s">
         <v>82</v>
       </c>
@@ -16856,7 +17207,7 @@
       <c r="C31" s="209"/>
       <c r="D31" s="212"/>
     </row>
-    <row r="32" spans="1:4" ht="19">
+    <row r="32" spans="1:4">
       <c r="A32" s="234" t="s">
         <v>55</v>
       </c>
@@ -16926,7 +17277,7 @@
       <c r="C36" s="209"/>
       <c r="D36" s="212"/>
     </row>
-    <row r="37" spans="1:4" ht="19">
+    <row r="37" spans="1:4">
       <c r="A37" s="234" t="s">
         <v>62</v>
       </c>
@@ -16954,7 +17305,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19" thickBot="1">
+    <row r="39" spans="1:4" ht="19.5" thickBot="1">
       <c r="A39" s="234" t="s">
         <v>66</v>
       </c>

--- a/日本版コアインボイス/国税庁Q&A_R2-09改訂2021-01-26.xlsx
+++ b/日本版コアインボイス/国税庁Q&A_R2-09改訂2021-01-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC87CDA4-FC35-4947-84A2-7C7B9BBEFA92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{621E9197-3D00-42DD-B772-E57584A3A76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11880" yWindow="60" windowWidth="16845" windowHeight="15510" xr2:uid="{4618B0B3-59F1-EB41-A686-E99BAC95D9AC}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <sheet name="問62" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2037,7 +2038,7 @@
   </si>
   <si>
     <t>文書全体の控除(返還請求)税額</t>
-    <rPh sb="26" eb="28">
+    <rPh sb="0" eb="15">
       <t>ゼイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
